--- a/CapStatement/temp_source_spreadsheets/EHRProvider.xlsx
+++ b/CapStatement/temp_source_spreadsheets/EHRProvider.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Python\MyNotebooks\CapStatement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skravitz/git/MyNotebooks/CapStatement/temp_source_spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42556141-3D8D-4B3F-B769-D8492D6E0100}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F909A343-8105-6147-924E-7E812DD8ECBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23685" yWindow="2190" windowWidth="25680" windowHeight="10665" activeTab="5" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="6" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="ops" sheetId="7" r:id="rId6"/>
     <sheet name="sps" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -793,13 +795,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="95.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="95.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -807,7 +809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -815,7 +817,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -823,7 +825,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -831,7 +833,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -839,7 +841,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="192" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -847,7 +849,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -868,15 +870,15 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="94" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36.5" customWidth="1"/>
     <col min="3" max="3" width="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -890,7 +892,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -904,7 +906,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -918,7 +920,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -932,7 +934,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>88</v>
       </c>
@@ -946,7 +948,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
     </row>
   </sheetData>
@@ -963,14 +965,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="89" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="36.5" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -984,7 +986,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -998,7 +1000,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1012,7 +1014,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1022,7 +1024,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1030,7 +1032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1038,7 +1040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1046,7 +1048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1054,7 +1056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1075,18 +1077,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
-    <col min="8" max="8" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.5" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="36.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>77</v>
       </c>
@@ -1112,7 +1114,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="225" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="192" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1125,7 +1127,7 @@
       <c r="D2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="395" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>52</v>
       </c>
@@ -1153,14 +1155,14 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -1171,7 +1173,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -1179,7 +1181,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -1190,7 +1192,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>69</v>
       </c>
@@ -1201,7 +1203,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>70</v>
       </c>
@@ -1212,7 +1214,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -1220,7 +1222,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -1228,7 +1230,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -1236,7 +1238,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -1247,7 +1249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>75</v>
       </c>
@@ -1267,17 +1269,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{205C96BB-EC4A-414F-8A7A-4F379CD7F5A3}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -1291,7 +1293,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -1317,20 +1319,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7399C2ED-EDEB-47AB-8C1E-1290512B1D2F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="63.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
+    <col min="17" max="17" width="45.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1383,7 +1386,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1433,7 +1436,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1484,7 +1487,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1538,7 +1541,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1592,7 +1595,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1646,7 +1649,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -1697,7 +1700,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1748,7 +1751,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -1799,7 +1802,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -1850,7 +1853,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -1904,7 +1907,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -1955,7 +1958,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -2009,7 +2012,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -2060,7 +2063,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -2111,7 +2114,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>81</v>
       </c>
